--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2015.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2015.xlsx
@@ -448,13 +448,13 @@
         <v>7430.1439201741</v>
       </c>
       <c r="G3" t="n">
-        <v>9402.20297403672</v>
+        <v>9936.64398519249</v>
       </c>
       <c r="H3" t="n">
-        <v>7942.81140865316</v>
+        <v>8295.54247601597</v>
       </c>
       <c r="I3" t="n">
-        <v>7002.59111124949</v>
+        <v>7301.87807749672</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2563.75572964474</v>
       </c>
       <c r="G4" t="n">
-        <v>3244.21061084973</v>
+        <v>3428.61837188751</v>
       </c>
       <c r="H4" t="n">
-        <v>2740.65058189949</v>
+        <v>2862.35970418442</v>
       </c>
       <c r="I4" t="n">
-        <v>2416.22952081452</v>
+        <v>2519.49786699567</v>
       </c>
     </row>
     <row r="5">
@@ -506,13 +506,13 @@
         <v>390.884123168935</v>
       </c>
       <c r="G5" t="n">
-        <v>501.859687467651</v>
+        <v>563.714177164567</v>
       </c>
       <c r="H5" t="n">
-        <v>391.586500158167</v>
+        <v>432.410463358132</v>
       </c>
       <c r="I5" t="n">
-        <v>341.400531411402</v>
+        <v>376.039045641675</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +535,13 @@
         <v>273.618886218255</v>
       </c>
       <c r="G6" t="n">
-        <v>351.301781227356</v>
+        <v>394.599924015197</v>
       </c>
       <c r="H6" t="n">
-        <v>274.110550110717</v>
+        <v>302.687324350692</v>
       </c>
       <c r="I6" t="n">
-        <v>238.980371987982</v>
+        <v>263.227331949173</v>
       </c>
     </row>
     <row r="7">
@@ -564,13 +564,13 @@
         <v>942.465052529543</v>
       </c>
       <c r="G7" t="n">
-        <v>1210.039468672</v>
+        <v>1359.17751605234</v>
       </c>
       <c r="H7" t="n">
-        <v>944.15856149247</v>
+        <v>1042.5896727635</v>
       </c>
       <c r="I7" t="n">
-        <v>823.15461462527</v>
+        <v>906.671921158262</v>
       </c>
     </row>
     <row r="8">
@@ -593,13 +593,13 @@
         <v>1566.73961256067</v>
       </c>
       <c r="G8" t="n">
-        <v>1982.57315107484</v>
+        <v>2095.26678282014</v>
       </c>
       <c r="H8" t="n">
-        <v>1674.84202227191</v>
+        <v>1749.21981922381</v>
       </c>
       <c r="I8" t="n">
-        <v>1476.58470716443</v>
+        <v>1539.6931409418</v>
       </c>
     </row>
     <row r="9">
@@ -622,13 +622,13 @@
         <v>469.060947802722</v>
       </c>
       <c r="G9" t="n">
-        <v>602.231624961181</v>
+        <v>676.45701259748</v>
       </c>
       <c r="H9" t="n">
-        <v>469.903800189801</v>
+        <v>518.892556029758</v>
       </c>
       <c r="I9" t="n">
-        <v>409.680637693683</v>
+        <v>451.24685477001</v>
       </c>
     </row>
     <row r="10">
@@ -651,13 +651,13 @@
         <v>65.1473538614892</v>
       </c>
       <c r="G10" t="n">
-        <v>83.6432812446085</v>
+        <v>93.9523628607611</v>
       </c>
       <c r="H10" t="n">
-        <v>65.2644166930279</v>
+        <v>72.0684105596886</v>
       </c>
       <c r="I10" t="n">
-        <v>56.9000885685671</v>
+        <v>62.6731742736126</v>
       </c>
     </row>
     <row r="11">
@@ -680,13 +680,13 @@
         <v>37384.5587201512</v>
       </c>
       <c r="G11" t="n">
-        <v>48017.2914150249</v>
+        <v>54021.3921509263</v>
       </c>
       <c r="H11" t="n">
-        <v>37383.0072729326</v>
+        <v>41345.7137586274</v>
       </c>
       <c r="I11" t="n">
-        <v>32581.2781314301</v>
+        <v>35943.5745435348</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>26118.5573902636</v>
       </c>
       <c r="G12" t="n">
-        <v>33547.069284312</v>
+        <v>37741.8078345636</v>
       </c>
       <c r="H12" t="n">
-        <v>26117.4734784935</v>
+        <v>28886.0009216596</v>
       </c>
       <c r="I12" t="n">
-        <v>22762.7665500623</v>
+        <v>25111.8201382032</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         <v>5003.07373626853</v>
       </c>
       <c r="G13" t="n">
-        <v>6432.24995331277</v>
+        <v>7264.81960720597</v>
       </c>
       <c r="H13" t="n">
-        <v>4980.24300848525</v>
+        <v>5529.73898005476</v>
       </c>
       <c r="I13" t="n">
-        <v>4337.01801315397</v>
+        <v>4803.25701933416</v>
       </c>
     </row>
     <row r="14">
@@ -767,13 +767,13 @@
         <v>5731.1329740091</v>
       </c>
       <c r="G14" t="n">
-        <v>7368.28632711575</v>
+        <v>8322.01350526952</v>
       </c>
       <c r="H14" t="n">
-        <v>5704.97986419766</v>
+        <v>6334.43980177915</v>
       </c>
       <c r="I14" t="n">
-        <v>4968.15123148608</v>
+        <v>5502.23845125219</v>
       </c>
     </row>
     <row r="15">
@@ -796,13 +796,13 @@
         <v>4349.68724086032</v>
       </c>
       <c r="G15" t="n">
-        <v>5592.21731015625</v>
+        <v>6316.05585253355</v>
       </c>
       <c r="H15" t="n">
-        <v>4329.83813797412</v>
+        <v>4807.57157594313</v>
       </c>
       <c r="I15" t="n">
-        <v>3770.61640695849</v>
+        <v>4175.96599068978</v>
       </c>
     </row>
     <row r="16">
@@ -825,13 +825,13 @@
         <v>13702.4482179892</v>
       </c>
       <c r="G16" t="n">
-        <v>17616.6845736253</v>
+        <v>19896.9313122731</v>
       </c>
       <c r="H16" t="n">
-        <v>13639.9192844335</v>
+        <v>15144.882131941</v>
       </c>
       <c r="I16" t="n">
-        <v>11878.250827071</v>
+        <v>13155.1890007137</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>3546.95526078739</v>
       </c>
       <c r="G17" t="n">
-        <v>4560.17720570682</v>
+        <v>5150.43181107886</v>
       </c>
       <c r="H17" t="n">
-        <v>3530.76929706044</v>
+        <v>3920.33733660599</v>
       </c>
       <c r="I17" t="n">
-        <v>3074.75157648976</v>
+        <v>3405.2941554981</v>
       </c>
     </row>
     <row r="18">
@@ -883,13 +883,13 @@
         <v>11294.2522777704</v>
       </c>
       <c r="G18" t="n">
-        <v>14520.564260277</v>
+        <v>16400.059187909</v>
       </c>
       <c r="H18" t="n">
-        <v>11242.7127616924</v>
+        <v>12483.1794139296</v>
       </c>
       <c r="I18" t="n">
-        <v>9790.65633566475</v>
+        <v>10843.1734951387</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>32.1284180462631</v>
       </c>
       <c r="G19" t="n">
-        <v>40.7873946918148</v>
+        <v>43.7127979837494</v>
       </c>
       <c r="H19" t="n">
-        <v>33.8668348818969</v>
+        <v>35.7976010545737</v>
       </c>
       <c r="I19" t="n">
-        <v>29.7880954127154</v>
+        <v>31.4263212561988</v>
       </c>
     </row>
     <row r="20">
@@ -941,13 +941,13 @@
         <v>3397.60977612266</v>
       </c>
       <c r="G20" t="n">
-        <v>4368.1697444139</v>
+        <v>4933.57152429659</v>
       </c>
       <c r="H20" t="n">
-        <v>3382.10532665789</v>
+        <v>3755.27050138047</v>
       </c>
       <c r="I20" t="n">
-        <v>2945.2883522165</v>
+        <v>3261.91334895081</v>
       </c>
     </row>
     <row r="21">

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2015.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2015.xlsx
@@ -23,22 +23,22 @@
     <t xml:space="preserve">MI_SA_PCDD_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ETInc_2015</t>
+    <t xml:space="preserve">MI_SA_ET15_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETInc_2015</t>
+    <t xml:space="preserve">MI_SA_PCDec_ET15_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETInc_2015</t>
+    <t xml:space="preserve">MI_SA_PCDD_ET15_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ETDec_2015</t>
+    <t xml:space="preserve">MI_SA_ETLow_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETDec_2015</t>
+    <t xml:space="preserve">MI_SA_PCDec_ETLow_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETDec_2015</t>
+    <t xml:space="preserve">MI_SA_PCDD_ETLow_2015</t>
   </si>
 </sst>
 </file>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2015.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2015.xlsx
@@ -23,22 +23,22 @@
     <t xml:space="preserve">MI_SA_PCDD_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ET15_2015</t>
+    <t xml:space="preserve">MI_SA_HighET_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_ET15_2015</t>
+    <t xml:space="preserve">MI_SA_PCDec_HighET_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_ET15_2015</t>
+    <t xml:space="preserve">MI_SA_PCDD_HighET_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ETLow_2015</t>
+    <t xml:space="preserve">MI_SA_LowET_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETLow_2015</t>
+    <t xml:space="preserve">MI_SA_PCDec_LowET_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETLow_2015</t>
+    <t xml:space="preserve">MI_SA_PCDD_LowET_2015</t>
   </si>
 </sst>
 </file>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2015.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2015.xlsx
@@ -439,13 +439,13 @@
         <v>7216.3675157118</v>
       </c>
       <c r="D3" t="n">
-        <v>10165.6901328307</v>
+        <v>10038.4422730317</v>
       </c>
       <c r="E3" t="n">
-        <v>8446.71293345717</v>
+        <v>8362.72934598984</v>
       </c>
       <c r="F3" t="n">
-        <v>7430.1439201741</v>
+        <v>7358.88511868667</v>
       </c>
       <c r="G3" t="n">
         <v>9936.64398519249</v>
@@ -468,13 +468,13 @@
         <v>2489.99262522963</v>
       </c>
       <c r="D4" t="n">
-        <v>3507.65026947512</v>
+        <v>3463.74365970422</v>
       </c>
       <c r="E4" t="n">
-        <v>2914.52075659225</v>
+        <v>2885.54239414346</v>
       </c>
       <c r="F4" t="n">
-        <v>2563.75572964474</v>
+        <v>2539.16802817304</v>
       </c>
       <c r="G4" t="n">
         <v>3428.61837188751</v>
@@ -497,13 +497,13 @@
         <v>366.142327290169</v>
       </c>
       <c r="D5" t="n">
-        <v>590.223244177531</v>
+        <v>575.495984725884</v>
       </c>
       <c r="E5" t="n">
-        <v>449.906447586688</v>
+        <v>440.186456348601</v>
       </c>
       <c r="F5" t="n">
-        <v>390.884123168935</v>
+        <v>382.636857876013</v>
       </c>
       <c r="G5" t="n">
         <v>563.714177164567</v>
@@ -526,13 +526,13 @@
         <v>256.299629103118</v>
       </c>
       <c r="D6" t="n">
-        <v>413.156270924271</v>
+        <v>402.847189308119</v>
       </c>
       <c r="E6" t="n">
-        <v>314.934513310682</v>
+        <v>308.130519444021</v>
       </c>
       <c r="F6" t="n">
-        <v>273.618886218255</v>
+        <v>267.845800513209</v>
       </c>
       <c r="G6" t="n">
         <v>394.599924015197</v>
@@ -555,13 +555,13 @@
         <v>882.809833577407</v>
       </c>
       <c r="D7" t="n">
-        <v>1423.09382207249</v>
+        <v>1387.58476317241</v>
       </c>
       <c r="E7" t="n">
-        <v>1084.77443473679</v>
+        <v>1061.33845586274</v>
       </c>
       <c r="F7" t="n">
-        <v>942.465052529543</v>
+        <v>922.579979545498</v>
       </c>
       <c r="G7" t="n">
         <v>1359.17751605234</v>
@@ -584,13 +584,13 @@
         <v>1521.66215986255</v>
       </c>
       <c r="D8" t="n">
-        <v>2143.56405356813</v>
+        <v>2116.73223648592</v>
       </c>
       <c r="E8" t="n">
-        <v>1781.09601791749</v>
+        <v>1763.38701864322</v>
       </c>
       <c r="F8" t="n">
-        <v>1566.73961256067</v>
+        <v>1551.71379499463</v>
       </c>
       <c r="G8" t="n">
         <v>2095.26678282014</v>
@@ -613,13 +613,13 @@
         <v>439.370792748203</v>
       </c>
       <c r="D9" t="n">
-        <v>708.267893013037</v>
+        <v>690.595181671061</v>
       </c>
       <c r="E9" t="n">
-        <v>539.887737104026</v>
+        <v>528.223747618322</v>
       </c>
       <c r="F9" t="n">
-        <v>469.060947802722</v>
+        <v>459.164229451216</v>
       </c>
       <c r="G9" t="n">
         <v>676.45701259748</v>
@@ -642,13 +642,13 @@
         <v>61.0237212150281</v>
       </c>
       <c r="D10" t="n">
-        <v>98.3705406962551</v>
+        <v>95.915997454314</v>
       </c>
       <c r="E10" t="n">
-        <v>74.9844079311147</v>
+        <v>73.3644093914336</v>
       </c>
       <c r="F10" t="n">
-        <v>65.1473538614892</v>
+        <v>63.7728096460022</v>
       </c>
       <c r="G10" t="n">
         <v>93.9523628607611</v>
@@ -671,13 +671,13 @@
         <v>34982.9184257906</v>
       </c>
       <c r="D11" t="n">
-        <v>56594.5781805983</v>
+        <v>55165.0303863361</v>
       </c>
       <c r="E11" t="n">
-        <v>43044.016538211</v>
+        <v>42100.5149939979</v>
       </c>
       <c r="F11" t="n">
-        <v>37384.5587201512</v>
+        <v>36584.0119553643</v>
       </c>
       <c r="G11" t="n">
         <v>54021.3921509263</v>
@@ -700,13 +700,13 @@
         <v>24440.661970163</v>
       </c>
       <c r="D12" t="n">
-        <v>39539.5529275286</v>
+        <v>38540.8056536592</v>
       </c>
       <c r="E12" t="n">
-        <v>30072.5126830165</v>
+        <v>29413.3394822626</v>
       </c>
       <c r="F12" t="n">
-        <v>26118.5573902636</v>
+        <v>25559.2589168967</v>
       </c>
       <c r="G12" t="n">
         <v>37741.8078345636</v>
@@ -729,13 +729,13 @@
         <v>4670.04587471125</v>
       </c>
       <c r="D13" t="n">
-        <v>7621.63517316019</v>
+        <v>7423.40430318562</v>
       </c>
       <c r="E13" t="n">
-        <v>5765.23725358455</v>
+        <v>5634.40487940133</v>
       </c>
       <c r="F13" t="n">
-        <v>5003.07373626853</v>
+        <v>4892.06444908277</v>
       </c>
       <c r="G13" t="n">
         <v>7264.81960720597</v>
@@ -758,13 +758,13 @@
         <v>5349.64210274759</v>
       </c>
       <c r="D14" t="n">
-        <v>8730.75372447828</v>
+        <v>8503.67582491786</v>
       </c>
       <c r="E14" t="n">
-        <v>6604.20834645693</v>
+        <v>6454.33693274705</v>
       </c>
       <c r="F14" t="n">
-        <v>5731.1329740091</v>
+        <v>5603.96935025526</v>
       </c>
       <c r="G14" t="n">
         <v>8322.01350526952</v>
@@ -787,13 +787,13 @@
         <v>4060.15182390941</v>
       </c>
       <c r="D15" t="n">
-        <v>6626.27237069524</v>
+        <v>6453.92986060541</v>
       </c>
       <c r="E15" t="n">
-        <v>5012.31447792985</v>
+        <v>4898.56842127056</v>
       </c>
       <c r="F15" t="n">
-        <v>4349.68724086032</v>
+        <v>4253.17543521002</v>
       </c>
       <c r="G15" t="n">
         <v>6316.05585253355</v>
@@ -816,13 +816,13 @@
         <v>12790.3495225301</v>
       </c>
       <c r="D16" t="n">
-        <v>20874.1799145507</v>
+        <v>20331.2640243964</v>
       </c>
       <c r="E16" t="n">
-        <v>15789.8662094442</v>
+        <v>15431.5417219425</v>
       </c>
       <c r="F16" t="n">
-        <v>13702.4482179892</v>
+        <v>13398.4153195028</v>
       </c>
       <c r="G16" t="n">
         <v>19896.9313122731</v>
@@ -845,13 +845,13 @@
         <v>3310.85341863857</v>
       </c>
       <c r="D17" t="n">
-        <v>5403.39807052402</v>
+        <v>5262.86125972115</v>
       </c>
       <c r="E17" t="n">
-        <v>4087.29506783979</v>
+        <v>3994.5407727099</v>
       </c>
       <c r="F17" t="n">
-        <v>3546.95526078739</v>
+        <v>3468.25464673778</v>
       </c>
       <c r="G17" t="n">
         <v>5150.43181107886</v>
@@ -874,13 +874,13 @@
         <v>10542.4543067176</v>
       </c>
       <c r="D18" t="n">
-        <v>17205.557014037</v>
+        <v>16758.0582217437</v>
       </c>
       <c r="E18" t="n">
-        <v>13014.8079791741</v>
+        <v>12719.4587762605</v>
       </c>
       <c r="F18" t="n">
-        <v>11294.2522777704</v>
+        <v>11043.6529540861</v>
       </c>
       <c r="G18" t="n">
         <v>16400.059187909</v>
@@ -903,13 +903,13 @@
         <v>30.9582567294892</v>
       </c>
       <c r="D19" t="n">
-        <v>44.9665422517213</v>
+        <v>44.2700176584036</v>
       </c>
       <c r="E19" t="n">
-        <v>36.6250722714352</v>
+        <v>36.1653660398455</v>
       </c>
       <c r="F19" t="n">
-        <v>32.1284180462631</v>
+        <v>31.7383642740051</v>
       </c>
       <c r="G19" t="n">
         <v>43.7127979837494</v>
@@ -932,13 +932,13 @@
         <v>3171.44906416958</v>
       </c>
       <c r="D20" t="n">
-        <v>5175.88657281774</v>
+        <v>5041.2671014171</v>
       </c>
       <c r="E20" t="n">
-        <v>3915.19843340443</v>
+        <v>3826.34958228001</v>
       </c>
       <c r="F20" t="n">
-        <v>3397.60977612266</v>
+        <v>3322.2228721383</v>
       </c>
       <c r="G20" t="n">
         <v>4933.57152429659</v>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2015.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2015.xlsx
@@ -32,13 +32,13 @@
     <t xml:space="preserve">MI_SA_PCDD_HighET_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_LowET_2015</t>
+    <t xml:space="preserve">MI_SA_ET_Low_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_LowET_2015</t>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_LowET_2015</t>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2015</t>
   </si>
 </sst>
 </file>
@@ -439,13 +439,13 @@
         <v>7216.3675157118</v>
       </c>
       <c r="D3" t="n">
-        <v>10038.4422730317</v>
+        <v>10165.6901328307</v>
       </c>
       <c r="E3" t="n">
-        <v>8362.72934598984</v>
+        <v>8446.71293345717</v>
       </c>
       <c r="F3" t="n">
-        <v>7358.88511868667</v>
+        <v>7430.1439201741</v>
       </c>
       <c r="G3" t="n">
         <v>9936.64398519249</v>
@@ -468,13 +468,13 @@
         <v>2489.99262522963</v>
       </c>
       <c r="D4" t="n">
-        <v>3463.74365970422</v>
+        <v>3507.65026947512</v>
       </c>
       <c r="E4" t="n">
-        <v>2885.54239414346</v>
+        <v>2914.52075659225</v>
       </c>
       <c r="F4" t="n">
-        <v>2539.16802817304</v>
+        <v>2563.75572964474</v>
       </c>
       <c r="G4" t="n">
         <v>3428.61837188751</v>
@@ -497,13 +497,13 @@
         <v>366.142327290169</v>
       </c>
       <c r="D5" t="n">
-        <v>575.495984725884</v>
+        <v>590.223244177531</v>
       </c>
       <c r="E5" t="n">
-        <v>440.186456348601</v>
+        <v>449.906447586688</v>
       </c>
       <c r="F5" t="n">
-        <v>382.636857876013</v>
+        <v>390.884123168935</v>
       </c>
       <c r="G5" t="n">
         <v>563.714177164567</v>
@@ -526,13 +526,13 @@
         <v>256.299629103118</v>
       </c>
       <c r="D6" t="n">
-        <v>402.847189308119</v>
+        <v>413.156270924271</v>
       </c>
       <c r="E6" t="n">
-        <v>308.130519444021</v>
+        <v>314.934513310682</v>
       </c>
       <c r="F6" t="n">
-        <v>267.845800513209</v>
+        <v>273.618886218255</v>
       </c>
       <c r="G6" t="n">
         <v>394.599924015197</v>
@@ -555,13 +555,13 @@
         <v>882.809833577407</v>
       </c>
       <c r="D7" t="n">
-        <v>1387.58476317241</v>
+        <v>1423.09382207249</v>
       </c>
       <c r="E7" t="n">
-        <v>1061.33845586274</v>
+        <v>1084.77443473679</v>
       </c>
       <c r="F7" t="n">
-        <v>922.579979545498</v>
+        <v>942.465052529543</v>
       </c>
       <c r="G7" t="n">
         <v>1359.17751605234</v>
@@ -584,13 +584,13 @@
         <v>1521.66215986255</v>
       </c>
       <c r="D8" t="n">
-        <v>2116.73223648592</v>
+        <v>2143.56405356813</v>
       </c>
       <c r="E8" t="n">
-        <v>1763.38701864322</v>
+        <v>1781.09601791749</v>
       </c>
       <c r="F8" t="n">
-        <v>1551.71379499463</v>
+        <v>1566.73961256067</v>
       </c>
       <c r="G8" t="n">
         <v>2095.26678282014</v>
@@ -613,13 +613,13 @@
         <v>439.370792748203</v>
       </c>
       <c r="D9" t="n">
-        <v>690.595181671061</v>
+        <v>708.267893013037</v>
       </c>
       <c r="E9" t="n">
-        <v>528.223747618322</v>
+        <v>539.887737104026</v>
       </c>
       <c r="F9" t="n">
-        <v>459.164229451216</v>
+        <v>469.060947802722</v>
       </c>
       <c r="G9" t="n">
         <v>676.45701259748</v>
@@ -642,13 +642,13 @@
         <v>61.0237212150281</v>
       </c>
       <c r="D10" t="n">
-        <v>95.915997454314</v>
+        <v>98.3705406962551</v>
       </c>
       <c r="E10" t="n">
-        <v>73.3644093914336</v>
+        <v>74.9844079311147</v>
       </c>
       <c r="F10" t="n">
-        <v>63.7728096460022</v>
+        <v>65.1473538614892</v>
       </c>
       <c r="G10" t="n">
         <v>93.9523628607611</v>
@@ -671,13 +671,13 @@
         <v>34982.9184257906</v>
       </c>
       <c r="D11" t="n">
-        <v>55165.0303863361</v>
+        <v>56594.5781805983</v>
       </c>
       <c r="E11" t="n">
-        <v>42100.5149939979</v>
+        <v>43044.016538211</v>
       </c>
       <c r="F11" t="n">
-        <v>36584.0119553643</v>
+        <v>37384.5587201512</v>
       </c>
       <c r="G11" t="n">
         <v>54021.3921509263</v>
@@ -700,13 +700,13 @@
         <v>24440.661970163</v>
       </c>
       <c r="D12" t="n">
-        <v>38540.8056536592</v>
+        <v>39539.5529275286</v>
       </c>
       <c r="E12" t="n">
-        <v>29413.3394822626</v>
+        <v>30072.5126830165</v>
       </c>
       <c r="F12" t="n">
-        <v>25559.2589168967</v>
+        <v>26118.5573902636</v>
       </c>
       <c r="G12" t="n">
         <v>37741.8078345636</v>
@@ -729,13 +729,13 @@
         <v>4670.04587471125</v>
       </c>
       <c r="D13" t="n">
-        <v>7423.40430318562</v>
+        <v>7621.63517316019</v>
       </c>
       <c r="E13" t="n">
-        <v>5634.40487940133</v>
+        <v>5765.23725358455</v>
       </c>
       <c r="F13" t="n">
-        <v>4892.06444908277</v>
+        <v>5003.07373626853</v>
       </c>
       <c r="G13" t="n">
         <v>7264.81960720597</v>
@@ -758,13 +758,13 @@
         <v>5349.64210274759</v>
       </c>
       <c r="D14" t="n">
-        <v>8503.67582491786</v>
+        <v>8730.75372447828</v>
       </c>
       <c r="E14" t="n">
-        <v>6454.33693274705</v>
+        <v>6604.20834645693</v>
       </c>
       <c r="F14" t="n">
-        <v>5603.96935025526</v>
+        <v>5731.1329740091</v>
       </c>
       <c r="G14" t="n">
         <v>8322.01350526952</v>
@@ -787,13 +787,13 @@
         <v>4060.15182390941</v>
       </c>
       <c r="D15" t="n">
-        <v>6453.92986060541</v>
+        <v>6626.27237069524</v>
       </c>
       <c r="E15" t="n">
-        <v>4898.56842127056</v>
+        <v>5012.31447792985</v>
       </c>
       <c r="F15" t="n">
-        <v>4253.17543521002</v>
+        <v>4349.68724086032</v>
       </c>
       <c r="G15" t="n">
         <v>6316.05585253355</v>
@@ -816,13 +816,13 @@
         <v>12790.3495225301</v>
       </c>
       <c r="D16" t="n">
-        <v>20331.2640243964</v>
+        <v>20874.1799145507</v>
       </c>
       <c r="E16" t="n">
-        <v>15431.5417219425</v>
+        <v>15789.8662094442</v>
       </c>
       <c r="F16" t="n">
-        <v>13398.4153195028</v>
+        <v>13702.4482179892</v>
       </c>
       <c r="G16" t="n">
         <v>19896.9313122731</v>
@@ -845,13 +845,13 @@
         <v>3310.85341863857</v>
       </c>
       <c r="D17" t="n">
-        <v>5262.86125972115</v>
+        <v>5403.39807052402</v>
       </c>
       <c r="E17" t="n">
-        <v>3994.5407727099</v>
+        <v>4087.29506783979</v>
       </c>
       <c r="F17" t="n">
-        <v>3468.25464673778</v>
+        <v>3546.95526078739</v>
       </c>
       <c r="G17" t="n">
         <v>5150.43181107886</v>
@@ -874,13 +874,13 @@
         <v>10542.4543067176</v>
       </c>
       <c r="D18" t="n">
-        <v>16758.0582217437</v>
+        <v>17205.557014037</v>
       </c>
       <c r="E18" t="n">
-        <v>12719.4587762605</v>
+        <v>13014.8079791741</v>
       </c>
       <c r="F18" t="n">
-        <v>11043.6529540861</v>
+        <v>11294.2522777704</v>
       </c>
       <c r="G18" t="n">
         <v>16400.059187909</v>
@@ -903,13 +903,13 @@
         <v>30.9582567294892</v>
       </c>
       <c r="D19" t="n">
-        <v>44.2700176584036</v>
+        <v>44.9665422517213</v>
       </c>
       <c r="E19" t="n">
-        <v>36.1653660398455</v>
+        <v>36.6250722714352</v>
       </c>
       <c r="F19" t="n">
-        <v>31.7383642740051</v>
+        <v>32.1284180462631</v>
       </c>
       <c r="G19" t="n">
         <v>43.7127979837494</v>
@@ -932,13 +932,13 @@
         <v>3171.44906416958</v>
       </c>
       <c r="D20" t="n">
-        <v>5041.2671014171</v>
+        <v>5175.88657281774</v>
       </c>
       <c r="E20" t="n">
-        <v>3826.34958228001</v>
+        <v>3915.19843340443</v>
       </c>
       <c r="F20" t="n">
-        <v>3322.2228721383</v>
+        <v>3397.60977612266</v>
       </c>
       <c r="G20" t="n">
         <v>4933.57152429659</v>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2015.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2015.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">MI_SA_2015</t>
   </si>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_Precip_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_Precip_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_Precip_2015</t>
   </si>
 </sst>
 </file>
@@ -398,6 +407,15 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -427,6 +445,15 @@
       <c r="I2" t="n">
         <v>35500</v>
       </c>
+      <c r="J2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="K2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="L2" t="n">
+        <v>35500</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +483,15 @@
       <c r="I3" t="n">
         <v>7301.87807749672</v>
       </c>
+      <c r="J3" t="n">
+        <v>9656.69869363471</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8362.72934598984</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7358.88511868667</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -485,6 +521,15 @@
       <c r="I4" t="n">
         <v>2519.49786699567</v>
       </c>
+      <c r="J4" t="n">
+        <v>3332.02383039153</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2885.54239414346</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2539.16802817304</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -514,6 +559,15 @@
       <c r="I5" t="n">
         <v>376.039045641675</v>
       </c>
+      <c r="J5" t="n">
+        <v>531.314206370944</v>
+      </c>
+      <c r="K5" t="n">
+        <v>440.186456348601</v>
+      </c>
+      <c r="L5" t="n">
+        <v>382.636857876013</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -543,6 +597,15 @@
       <c r="I6" t="n">
         <v>263.227331949173</v>
       </c>
+      <c r="J6" t="n">
+        <v>371.919944459661</v>
+      </c>
+      <c r="K6" t="n">
+        <v>308.130519444021</v>
+      </c>
+      <c r="L6" t="n">
+        <v>267.845800513209</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +635,15 @@
       <c r="I7" t="n">
         <v>906.671921158262</v>
       </c>
+      <c r="J7" t="n">
+        <v>1281.05758647216</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1061.33845586274</v>
+      </c>
+      <c r="L7" t="n">
+        <v>922.579979545498</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -601,6 +673,15 @@
       <c r="I8" t="n">
         <v>1539.6931409418</v>
       </c>
+      <c r="J8" t="n">
+        <v>2036.23678523927</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1763.38701864322</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1551.71379499463</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -630,6 +711,15 @@
       <c r="I9" t="n">
         <v>451.24685477001</v>
       </c>
+      <c r="J9" t="n">
+        <v>637.577047645133</v>
+      </c>
+      <c r="K9" t="n">
+        <v>528.223747618322</v>
+      </c>
+      <c r="L9" t="n">
+        <v>459.164229451216</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -659,6 +749,15 @@
       <c r="I10" t="n">
         <v>62.6731742736126</v>
       </c>
+      <c r="J10" t="n">
+        <v>88.5523677284907</v>
+      </c>
+      <c r="K10" t="n">
+        <v>73.3644093914336</v>
+      </c>
+      <c r="L10" t="n">
+        <v>63.7728096460022</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -688,6 +787,15 @@
       <c r="I11" t="n">
         <v>35943.5745435348</v>
       </c>
+      <c r="J11" t="n">
+        <v>50876.3870035494</v>
+      </c>
+      <c r="K11" t="n">
+        <v>42100.5149939979</v>
+      </c>
+      <c r="L11" t="n">
+        <v>36584.0119553643</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -717,6 +825,15 @@
       <c r="I12" t="n">
         <v>25111.8201382032</v>
       </c>
+      <c r="J12" t="n">
+        <v>35544.5638320509</v>
+      </c>
+      <c r="K12" t="n">
+        <v>29413.3394822626</v>
+      </c>
+      <c r="L12" t="n">
+        <v>25559.2589168967</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -746,6 +863,15 @@
       <c r="I13" t="n">
         <v>4803.25701933416</v>
       </c>
+      <c r="J13" t="n">
+        <v>6828.71169326191</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5634.40487940133</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4892.06444908277</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -775,6 +901,15 @@
       <c r="I14" t="n">
         <v>5502.23845125219</v>
       </c>
+      <c r="J14" t="n">
+        <v>7822.4421262366</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6454.33693274705</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5603.96935025526</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -804,6 +939,15 @@
       <c r="I15" t="n">
         <v>4175.96599068978</v>
       </c>
+      <c r="J15" t="n">
+        <v>5936.90233033592</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4898.56842127056</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4253.17543521002</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -833,6 +977,15 @@
       <c r="I16" t="n">
         <v>13155.1890007137</v>
       </c>
+      <c r="J16" t="n">
+        <v>18702.5163539338</v>
+      </c>
+      <c r="K16" t="n">
+        <v>15431.5417219425</v>
+      </c>
+      <c r="L16" t="n">
+        <v>13398.4153195028</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -862,6 +1015,15 @@
       <c r="I17" t="n">
         <v>3405.2941554981</v>
       </c>
+      <c r="J17" t="n">
+        <v>4841.25082731255</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3994.5407727099</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3468.25464673778</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -891,6 +1053,15 @@
       <c r="I18" t="n">
         <v>10843.1734951387</v>
       </c>
+      <c r="J18" t="n">
+        <v>15415.5618448636</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12719.4587762605</v>
+      </c>
+      <c r="L18" t="n">
+        <v>11043.6529540861</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -920,6 +1091,15 @@
       <c r="I19" t="n">
         <v>31.4263212561988</v>
       </c>
+      <c r="J19" t="n">
+        <v>42.1804438784503</v>
+      </c>
+      <c r="K19" t="n">
+        <v>36.1653660398455</v>
+      </c>
+      <c r="L19" t="n">
+        <v>31.7383642740051</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -949,6 +1129,15 @@
       <c r="I20" t="n">
         <v>3261.91334895081</v>
       </c>
+      <c r="J20" t="n">
+        <v>4637.40868721518</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3826.34958228001</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3322.2228721383</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -976,6 +1165,15 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2015.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2015.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">MI_SA_2015</t>
   </si>
@@ -39,15 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_Precip_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_Precip_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_Precip_2015</t>
   </si>
 </sst>
 </file>
@@ -407,15 +398,6 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -445,15 +427,6 @@
       <c r="I2" t="n">
         <v>35500</v>
       </c>
-      <c r="J2" t="n">
-        <v>35500</v>
-      </c>
-      <c r="K2" t="n">
-        <v>35500</v>
-      </c>
-      <c r="L2" t="n">
-        <v>35500</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,15 +456,6 @@
       <c r="I3" t="n">
         <v>7301.87807749672</v>
       </c>
-      <c r="J3" t="n">
-        <v>9656.69869363471</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8362.72934598984</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7358.88511868667</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -521,15 +485,6 @@
       <c r="I4" t="n">
         <v>2519.49786699567</v>
       </c>
-      <c r="J4" t="n">
-        <v>3332.02383039153</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2885.54239414346</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2539.16802817304</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -559,15 +514,6 @@
       <c r="I5" t="n">
         <v>376.039045641675</v>
       </c>
-      <c r="J5" t="n">
-        <v>531.314206370944</v>
-      </c>
-      <c r="K5" t="n">
-        <v>440.186456348601</v>
-      </c>
-      <c r="L5" t="n">
-        <v>382.636857876013</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -597,15 +543,6 @@
       <c r="I6" t="n">
         <v>263.227331949173</v>
       </c>
-      <c r="J6" t="n">
-        <v>371.919944459661</v>
-      </c>
-      <c r="K6" t="n">
-        <v>308.130519444021</v>
-      </c>
-      <c r="L6" t="n">
-        <v>267.845800513209</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -635,15 +572,6 @@
       <c r="I7" t="n">
         <v>906.671921158262</v>
       </c>
-      <c r="J7" t="n">
-        <v>1281.05758647216</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1061.33845586274</v>
-      </c>
-      <c r="L7" t="n">
-        <v>922.579979545498</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -673,15 +601,6 @@
       <c r="I8" t="n">
         <v>1539.6931409418</v>
       </c>
-      <c r="J8" t="n">
-        <v>2036.23678523927</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1763.38701864322</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1551.71379499463</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -711,15 +630,6 @@
       <c r="I9" t="n">
         <v>451.24685477001</v>
       </c>
-      <c r="J9" t="n">
-        <v>637.577047645133</v>
-      </c>
-      <c r="K9" t="n">
-        <v>528.223747618322</v>
-      </c>
-      <c r="L9" t="n">
-        <v>459.164229451216</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -749,15 +659,6 @@
       <c r="I10" t="n">
         <v>62.6731742736126</v>
       </c>
-      <c r="J10" t="n">
-        <v>88.5523677284907</v>
-      </c>
-      <c r="K10" t="n">
-        <v>73.3644093914336</v>
-      </c>
-      <c r="L10" t="n">
-        <v>63.7728096460022</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -787,15 +688,6 @@
       <c r="I11" t="n">
         <v>35943.5745435348</v>
       </c>
-      <c r="J11" t="n">
-        <v>50876.3870035494</v>
-      </c>
-      <c r="K11" t="n">
-        <v>42100.5149939979</v>
-      </c>
-      <c r="L11" t="n">
-        <v>36584.0119553643</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -825,15 +717,6 @@
       <c r="I12" t="n">
         <v>25111.8201382032</v>
       </c>
-      <c r="J12" t="n">
-        <v>35544.5638320509</v>
-      </c>
-      <c r="K12" t="n">
-        <v>29413.3394822626</v>
-      </c>
-      <c r="L12" t="n">
-        <v>25559.2589168967</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -863,15 +746,6 @@
       <c r="I13" t="n">
         <v>4803.25701933416</v>
       </c>
-      <c r="J13" t="n">
-        <v>6828.71169326191</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5634.40487940133</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4892.06444908277</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -901,15 +775,6 @@
       <c r="I14" t="n">
         <v>5502.23845125219</v>
       </c>
-      <c r="J14" t="n">
-        <v>7822.4421262366</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6454.33693274705</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5603.96935025526</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -939,15 +804,6 @@
       <c r="I15" t="n">
         <v>4175.96599068978</v>
       </c>
-      <c r="J15" t="n">
-        <v>5936.90233033592</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4898.56842127056</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4253.17543521002</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -977,15 +833,6 @@
       <c r="I16" t="n">
         <v>13155.1890007137</v>
       </c>
-      <c r="J16" t="n">
-        <v>18702.5163539338</v>
-      </c>
-      <c r="K16" t="n">
-        <v>15431.5417219425</v>
-      </c>
-      <c r="L16" t="n">
-        <v>13398.4153195028</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1015,15 +862,6 @@
       <c r="I17" t="n">
         <v>3405.2941554981</v>
       </c>
-      <c r="J17" t="n">
-        <v>4841.25082731255</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3994.5407727099</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3468.25464673778</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1053,15 +891,6 @@
       <c r="I18" t="n">
         <v>10843.1734951387</v>
       </c>
-      <c r="J18" t="n">
-        <v>15415.5618448636</v>
-      </c>
-      <c r="K18" t="n">
-        <v>12719.4587762605</v>
-      </c>
-      <c r="L18" t="n">
-        <v>11043.6529540861</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1091,15 +920,6 @@
       <c r="I19" t="n">
         <v>31.4263212561988</v>
       </c>
-      <c r="J19" t="n">
-        <v>42.1804438784503</v>
-      </c>
-      <c r="K19" t="n">
-        <v>36.1653660398455</v>
-      </c>
-      <c r="L19" t="n">
-        <v>31.7383642740051</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1129,15 +949,6 @@
       <c r="I20" t="n">
         <v>3261.91334895081</v>
       </c>
-      <c r="J20" t="n">
-        <v>4637.40868721518</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3826.34958228001</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3322.2228721383</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1165,15 +976,6 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>
